--- a/Secondhand_Lens/Projects/pr_sls_dwh/input/secondhand_lens_store_sales_data_raw.xlsx
+++ b/Secondhand_Lens/Projects/pr_sls_dwh/input/secondhand_lens_store_sales_data_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Partner_Training\Secondhand_Lens\Projects\pr_sls_dwh\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secondhand_Lens\Projects\pr_sls_dwh\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07CFEA5F-1A5C-43F7-8577-242B56237EFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73E859-7721-47B3-93C2-543ECFC27AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="17588" windowHeight="12085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,15 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"transactions"</definedName>
     <definedName name="transactionsSource">#NAME?</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2259,19 +2267,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="5"/>
-    <col min="2" max="2" width="38.140625"/>
-    <col min="3" max="3" width="58.140625"/>
-    <col min="4" max="4" width="29.140625"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125"/>
-    <col min="7" max="1026" width="11.5703125"/>
+    <col min="1" max="1" width="18.53515625" style="5"/>
+    <col min="2" max="2" width="38.15234375"/>
+    <col min="3" max="3" width="58.15234375"/>
+    <col min="4" max="4" width="29.15234375"/>
+    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625"/>
+    <col min="7" max="1026" width="11.53515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2296,7 +2304,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5">
-        <v>42899</v>
+        <v>43629</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2316,7 +2324,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="B3" t="s">
         <v>566</v>
@@ -2336,7 +2344,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>42906</v>
+        <v>43636</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2356,7 +2364,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5">
-        <v>42806</v>
+        <v>43536</v>
       </c>
       <c r="B5" t="s">
         <v>583</v>
@@ -2376,7 +2384,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5">
-        <v>42787</v>
+        <v>43517</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -2396,7 +2404,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5">
-        <v>42896</v>
+        <v>43626</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -2416,7 +2424,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5">
-        <v>42857</v>
+        <v>43587</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2436,7 +2444,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5">
-        <v>42755</v>
+        <v>43485</v>
       </c>
       <c r="B9" t="s">
         <v>583</v>
@@ -2456,7 +2464,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5">
-        <v>42891</v>
+        <v>43621</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2476,7 +2484,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5">
-        <v>42796</v>
+        <v>43526</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2496,7 +2504,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5">
-        <v>42909</v>
+        <v>43639</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2516,7 +2524,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5">
-        <v>42838</v>
+        <v>43568</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -2536,7 +2544,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5">
-        <v>42834</v>
+        <v>43564</v>
       </c>
       <c r="B14" t="s">
         <v>583</v>
@@ -2556,7 +2564,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5">
-        <v>42763</v>
+        <v>43493</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2576,7 +2584,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -2596,7 +2604,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5">
-        <v>42868</v>
+        <v>43598</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -2616,7 +2624,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5">
-        <v>42815</v>
+        <v>43545</v>
       </c>
       <c r="B18" t="s">
         <v>581</v>
@@ -2636,7 +2644,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5">
-        <v>42771</v>
+        <v>43501</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2656,7 +2664,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5">
-        <v>42777</v>
+        <v>43507</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2676,7 +2684,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5">
-        <v>42915</v>
+        <v>43645</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -2696,7 +2704,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5">
-        <v>42824</v>
+        <v>43554</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2716,7 +2724,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5">
-        <v>42737</v>
+        <v>43467</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2736,7 +2744,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5">
-        <v>42905</v>
+        <v>43635</v>
       </c>
       <c r="B24" t="s">
         <v>582</v>
@@ -2756,7 +2764,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5">
-        <v>42893</v>
+        <v>43623</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2776,7 +2784,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5">
-        <v>42910</v>
+        <v>43640</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -2796,7 +2804,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5">
-        <v>42836</v>
+        <v>43566</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2816,7 +2824,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5">
-        <v>42737</v>
+        <v>43467</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2836,7 +2844,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="B29" t="s">
         <v>566</v>
@@ -2856,7 +2864,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5">
-        <v>42856</v>
+        <v>43586</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -2876,7 +2884,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5">
-        <v>42877</v>
+        <v>43607</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -2896,7 +2904,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5">
-        <v>42824</v>
+        <v>43554</v>
       </c>
       <c r="B32" t="s">
         <v>566</v>
@@ -2916,7 +2924,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5">
-        <v>42773</v>
+        <v>43503</v>
       </c>
       <c r="B33" t="s">
         <v>570</v>
@@ -2936,7 +2944,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5">
-        <v>42903</v>
+        <v>43633</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2956,7 +2964,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5">
-        <v>42868</v>
+        <v>43598</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -2976,7 +2984,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5">
-        <v>42881</v>
+        <v>43611</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -2996,7 +3004,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5">
-        <v>42903</v>
+        <v>43633</v>
       </c>
       <c r="B37" t="s">
         <v>569</v>
@@ -3016,7 +3024,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5">
-        <v>42906</v>
+        <v>43636</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -3036,7 +3044,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5">
-        <v>42838</v>
+        <v>43568</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -3056,7 +3064,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5">
-        <v>42805</v>
+        <v>43535</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -3076,7 +3084,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5">
-        <v>42912</v>
+        <v>43642</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -3096,7 +3104,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5">
-        <v>42791</v>
+        <v>43521</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -3116,7 +3124,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5">
-        <v>42843</v>
+        <v>43573</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -3136,7 +3144,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5">
-        <v>42799</v>
+        <v>43529</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -3156,7 +3164,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5">
-        <v>42746</v>
+        <v>43476</v>
       </c>
       <c r="B45" t="s">
         <v>583</v>
@@ -3176,7 +3184,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5">
-        <v>42746</v>
+        <v>43476</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -3193,7 +3201,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5">
-        <v>42773</v>
+        <v>43503</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -3213,7 +3221,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5">
-        <v>42786</v>
+        <v>43516</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -3233,7 +3241,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5">
-        <v>42866</v>
+        <v>43596</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -3253,7 +3261,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5">
-        <v>42771</v>
+        <v>43501</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -3273,7 +3281,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5">
-        <v>42898</v>
+        <v>43628</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -3293,7 +3301,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5">
-        <v>42790</v>
+        <v>43520</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -3313,7 +3321,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5">
-        <v>42744</v>
+        <v>43474</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -3333,7 +3341,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5">
-        <v>42783</v>
+        <v>43513</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -3353,7 +3361,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5">
-        <v>42890</v>
+        <v>43620</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -3370,7 +3378,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5">
-        <v>42851</v>
+        <v>43581</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -3390,7 +3398,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5">
-        <v>42898</v>
+        <v>43628</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -3410,7 +3418,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5">
-        <v>42893</v>
+        <v>43623</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -3430,7 +3438,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5">
-        <v>42770</v>
+        <v>43500</v>
       </c>
       <c r="B59" t="s">
         <v>570</v>
@@ -3450,7 +3458,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5">
-        <v>42895</v>
+        <v>43625</v>
       </c>
       <c r="B60" t="s">
         <v>569</v>
@@ -3470,7 +3478,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5">
-        <v>42799</v>
+        <v>43529</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3490,7 +3498,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5">
-        <v>42909</v>
+        <v>43639</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3510,7 +3518,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5">
-        <v>42865</v>
+        <v>43595</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -3530,7 +3538,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5">
-        <v>42820</v>
+        <v>43550</v>
       </c>
       <c r="B64" t="s">
         <v>566</v>
@@ -3550,7 +3558,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5">
-        <v>42896</v>
+        <v>43626</v>
       </c>
       <c r="B65" t="s">
         <v>590</v>
@@ -3570,7 +3578,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5">
-        <v>42781</v>
+        <v>43511</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -3590,7 +3598,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5">
-        <v>42884</v>
+        <v>43614</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -3610,7 +3618,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5">
-        <v>42781</v>
+        <v>43511</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -3630,7 +3638,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5">
-        <v>42764</v>
+        <v>43494</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -3650,7 +3658,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5">
-        <v>42803</v>
+        <v>43533</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -3670,7 +3678,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5">
-        <v>42772</v>
+        <v>43502</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -3690,7 +3698,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5">
-        <v>42908</v>
+        <v>43638</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -3710,7 +3718,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5">
-        <v>42757</v>
+        <v>43487</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -3727,7 +3735,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5">
-        <v>42815</v>
+        <v>43545</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -3747,7 +3755,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5">
-        <v>42886</v>
+        <v>43616</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -3767,7 +3775,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5">
-        <v>42776</v>
+        <v>43506</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5">
-        <v>42841</v>
+        <v>43571</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -3807,7 +3815,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5">
-        <v>42910</v>
+        <v>43640</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -3827,7 +3835,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5">
-        <v>42767</v>
+        <v>43497</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -3847,7 +3855,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5">
-        <v>42874</v>
+        <v>43604</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -3867,7 +3875,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5">
-        <v>42765</v>
+        <v>43495</v>
       </c>
       <c r="B81" t="s">
         <v>570</v>
@@ -3887,7 +3895,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="5">
-        <v>42746</v>
+        <v>43476</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -3904,7 +3912,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5">
-        <v>42889</v>
+        <v>43619</v>
       </c>
       <c r="B83" t="s">
         <v>570</v>
@@ -3924,7 +3932,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="5">
-        <v>42793</v>
+        <v>43523</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -3941,7 +3949,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5">
-        <v>42755</v>
+        <v>43485</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3961,7 +3969,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5">
-        <v>42750</v>
+        <v>43480</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -3981,7 +3989,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5">
-        <v>42816</v>
+        <v>43546</v>
       </c>
       <c r="B87" t="s">
         <v>570</v>
@@ -4001,7 +4009,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5">
-        <v>42815</v>
+        <v>43545</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -4021,7 +4029,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="5">
-        <v>42885</v>
+        <v>43615</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -4041,7 +4049,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5">
-        <v>42784</v>
+        <v>43514</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4061,7 +4069,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5">
-        <v>42742</v>
+        <v>43472</v>
       </c>
       <c r="B91" t="s">
         <v>570</v>
@@ -4081,7 +4089,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5">
-        <v>42901</v>
+        <v>43631</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -4101,7 +4109,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="5">
-        <v>42745</v>
+        <v>43475</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -4121,7 +4129,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5">
-        <v>42885</v>
+        <v>43615</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -4141,7 +4149,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5">
-        <v>42792</v>
+        <v>43522</v>
       </c>
       <c r="B95" t="s">
         <v>581</v>
@@ -4161,7 +4169,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="5">
-        <v>42789</v>
+        <v>43519</v>
       </c>
       <c r="B96" t="s">
         <v>581</v>
@@ -4181,7 +4189,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="5">
-        <v>42908</v>
+        <v>43638</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -4201,7 +4209,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="5">
-        <v>42850</v>
+        <v>43580</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
@@ -4221,7 +4229,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="5">
-        <v>42806</v>
+        <v>43536</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -4238,7 +4246,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="5">
-        <v>42767</v>
+        <v>43497</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -4271,15 +4279,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125"/>
-    <col min="2" max="2" width="18.5703125"/>
-    <col min="3" max="3" width="20.140625"/>
-    <col min="4" max="4" width="12.5703125"/>
-    <col min="5" max="5" width="17.42578125"/>
-    <col min="6" max="6" width="12.5703125"/>
-    <col min="7" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="12.53515625"/>
+    <col min="2" max="2" width="18.53515625"/>
+    <col min="3" max="3" width="20.15234375"/>
+    <col min="4" max="4" width="12.53515625"/>
+    <col min="5" max="5" width="17.3828125"/>
+    <col min="6" max="6" width="12.53515625"/>
+    <col min="7" max="1025" width="11.53515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -4308,7 +4316,7 @@
       </c>
       <c r="B2" s="2">
         <f>transactions!A2</f>
-        <v>42899</v>
+        <v>43629</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4329,7 +4337,7 @@
       </c>
       <c r="B3" s="2">
         <f>transactions!A3</f>
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4350,7 +4358,7 @@
       </c>
       <c r="B4" s="2">
         <f>transactions!A4</f>
-        <v>42906</v>
+        <v>43636</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -4371,7 +4379,7 @@
       </c>
       <c r="B5" s="2">
         <f>transactions!A5</f>
-        <v>42806</v>
+        <v>43536</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -4392,7 +4400,7 @@
       </c>
       <c r="B6" s="2">
         <f>transactions!A6</f>
-        <v>42787</v>
+        <v>43517</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -4413,7 +4421,7 @@
       </c>
       <c r="B7" s="2">
         <f>transactions!A7</f>
-        <v>42896</v>
+        <v>43626</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -4434,7 +4442,7 @@
       </c>
       <c r="B8" s="2">
         <f>transactions!A8</f>
-        <v>42857</v>
+        <v>43587</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -4455,7 +4463,7 @@
       </c>
       <c r="B9" s="2">
         <f>transactions!A9</f>
-        <v>42755</v>
+        <v>43485</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -4476,7 +4484,7 @@
       </c>
       <c r="B10" s="2">
         <f>transactions!A10</f>
-        <v>42891</v>
+        <v>43621</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -4497,7 +4505,7 @@
       </c>
       <c r="B11" s="2">
         <f>transactions!A11</f>
-        <v>42796</v>
+        <v>43526</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -4518,7 +4526,7 @@
       </c>
       <c r="B12" s="2">
         <f>transactions!A12</f>
-        <v>42909</v>
+        <v>43639</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
@@ -4539,7 +4547,7 @@
       </c>
       <c r="B13" s="2">
         <f>transactions!A13</f>
-        <v>42838</v>
+        <v>43568</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4560,7 +4568,7 @@
       </c>
       <c r="B14" s="2">
         <f>transactions!A14</f>
-        <v>42834</v>
+        <v>43564</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -4581,7 +4589,7 @@
       </c>
       <c r="B15" s="2">
         <f>transactions!A15</f>
-        <v>42763</v>
+        <v>43493</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -4602,7 +4610,7 @@
       </c>
       <c r="B16" s="2">
         <f>transactions!A16</f>
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
@@ -4623,7 +4631,7 @@
       </c>
       <c r="B17" s="3">
         <f>transactions!A17</f>
-        <v>42868</v>
+        <v>43598</v>
       </c>
       <c r="C17" s="4">
         <v>9</v>
@@ -4648,22 +4656,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" customWidth="1"/>
+    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40"/>
-    <col min="7" max="7" width="12.5703125"/>
+    <col min="7" max="7" width="12.53515625"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1028" width="11.5703125"/>
+    <col min="10" max="1028" width="11.53515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="12.9">
       <c r="A1" s="7" t="s">
         <v>559</v>
       </c>
@@ -4689,7 +4697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="12.9">
       <c r="A2" s="7" t="s">
         <v>560</v>
       </c>
@@ -4712,10 +4720,10 @@
         <v>521</v>
       </c>
       <c r="H2" s="10">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.9">
       <c r="A3" s="7" t="s">
         <v>561</v>
       </c>
@@ -4738,10 +4746,10 @@
         <v>521</v>
       </c>
       <c r="H3" s="10">
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.9">
       <c r="A4" s="7" t="s">
         <v>560</v>
       </c>
@@ -4764,10 +4772,10 @@
         <v>521</v>
       </c>
       <c r="H4" s="10">
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.9">
       <c r="A5" s="7" t="s">
         <v>560</v>
       </c>
@@ -4790,10 +4798,10 @@
         <v>521</v>
       </c>
       <c r="H5" s="10">
-        <v>42769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.9">
       <c r="A6" s="7" t="s">
         <v>561</v>
       </c>
@@ -4816,10 +4824,10 @@
         <v>521</v>
       </c>
       <c r="H6" s="10">
-        <v>42770</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.9">
       <c r="A7" s="7" t="s">
         <v>560</v>
       </c>
@@ -4842,10 +4850,10 @@
         <v>521</v>
       </c>
       <c r="H7" s="10">
-        <v>42770</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.9">
       <c r="A8" s="7" t="s">
         <v>560</v>
       </c>
@@ -4868,10 +4876,10 @@
         <v>521</v>
       </c>
       <c r="H8" s="10">
-        <v>42771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.9">
       <c r="A9" s="7" t="s">
         <v>560</v>
       </c>
@@ -4894,10 +4902,10 @@
         <v>521</v>
       </c>
       <c r="H9" s="10">
-        <v>42772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.9">
       <c r="A10" s="7" t="s">
         <v>560</v>
       </c>
@@ -4920,10 +4928,10 @@
         <v>521</v>
       </c>
       <c r="H10" s="10">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.9">
       <c r="A11" s="7" t="s">
         <v>563</v>
       </c>
@@ -4946,10 +4954,10 @@
         <v>521</v>
       </c>
       <c r="H11" s="10">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.9">
       <c r="A12" s="7" t="s">
         <v>560</v>
       </c>
@@ -4972,10 +4980,10 @@
         <v>521</v>
       </c>
       <c r="H12" s="10">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.9">
       <c r="A13" s="7" t="s">
         <v>561</v>
       </c>
@@ -4998,10 +5006,10 @@
         <v>521</v>
       </c>
       <c r="H13" s="10">
-        <v>42775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.9">
       <c r="A14" s="7" t="s">
         <v>560</v>
       </c>
@@ -5024,10 +5032,10 @@
         <v>522</v>
       </c>
       <c r="H14" s="11">
-        <v>42776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.9">
       <c r="A15" s="7" t="s">
         <v>560</v>
       </c>
@@ -5050,10 +5058,10 @@
         <v>522</v>
       </c>
       <c r="H15" s="11">
-        <v>42777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.9">
       <c r="A16" s="7" t="s">
         <v>571</v>
       </c>
@@ -5076,10 +5084,10 @@
         <v>522</v>
       </c>
       <c r="H16" s="11">
-        <v>42777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.9">
       <c r="A17" s="7" t="s">
         <v>563</v>
       </c>
@@ -5102,10 +5110,10 @@
         <v>522</v>
       </c>
       <c r="H17" s="11">
-        <v>42780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.9">
       <c r="A18" s="7" t="s">
         <v>584</v>
       </c>
@@ -5128,10 +5136,10 @@
         <v>522</v>
       </c>
       <c r="H18" s="11">
-        <v>42785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.9">
       <c r="A19" s="7" t="s">
         <v>560</v>
       </c>
@@ -5154,10 +5162,10 @@
         <v>522</v>
       </c>
       <c r="H19" s="11">
-        <v>42787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.9">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5167,7 +5175,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="12.9">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5177,7 +5185,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="12.9">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5187,7 +5195,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="12.9">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5197,7 +5205,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="12.9">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5207,7 +5215,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="12.9">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5217,7 +5225,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="12.9">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5227,7 +5235,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="12.9">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5237,7 +5245,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="12.9">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5247,7 +5255,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="12.9">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5257,7 +5265,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="12.9">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5267,7 +5275,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="12.9">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5277,7 +5285,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="12.9">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5287,7 +5295,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="12.9">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5297,7 +5305,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="12.9">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5321,15 +5329,15 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="102.85546875"/>
-    <col min="2" max="2" width="12.5703125" style="14"/>
-    <col min="3" max="3" width="29.5703125"/>
-    <col min="4" max="7" width="12.5703125"/>
-    <col min="8" max="8" width="16.5703125"/>
-    <col min="9" max="9" width="12.5703125"/>
-    <col min="10" max="1024" width="11.5703125"/>
+    <col min="1" max="1" width="102.84375"/>
+    <col min="2" max="2" width="12.53515625" style="14"/>
+    <col min="3" max="3" width="29.53515625"/>
+    <col min="4" max="7" width="12.53515625"/>
+    <col min="8" max="8" width="16.53515625"/>
+    <col min="9" max="9" width="12.53515625"/>
+    <col min="10" max="1024" width="11.53515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
@@ -17214,11 +17222,11 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
